--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118370.462235311</v>
+        <v>20849596.03514193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118370.462235311</v>
+        <v>20849596.03514193</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8657.745655616211</v>
+        <v>982790.6230383479</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8657.745655616211</v>
+        <v>982790.6230383479</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265223953.172638</v>
+        <v>50736376.93874651</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9607.89131454772</v>
+        <v>1058055.760108826</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18652.37191673701</v>
+        <v>2096344.541281291</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27844.53947844499</v>
+        <v>3131396.151399466</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37214.33821831938</v>
+        <v>4157799.015412483</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46477.20263293922</v>
+        <v>5194949.803089095</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55814.04437518398</v>
+        <v>6231411.895881298</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65098.93813493368</v>
+        <v>7267873.988673553</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74349.80583993827</v>
+        <v>8304336.081465804</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83697.16527875001</v>
+        <v>9341291.161750857</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92743.04368992889</v>
+        <v>10374866.81606891</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101800.2979052159</v>
+        <v>11408742.54823585</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110543.2742099752</v>
+        <v>12442242.64869051</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119350.723072144</v>
+        <v>13475797.29635884</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128615.7777092854</v>
+        <v>14446724.56293975</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138650.4986491955</v>
+        <v>15324910.96476339</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>-6.986194981727749e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361.0000000001573</v>
@@ -27055,10 +27055,10 @@
         <v>48.99999999985749</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>348.0000000001438</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
